--- a/Gantt_Chart_updated_version.xlsx
+++ b/Gantt_Chart_updated_version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2de607e8500e3b79/Documents/MSE2202/GanttChart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7407AC9C-4844-45D3-9013-694DAA555C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140A19C-168D-46B0-AB0C-B29BF83734FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="1" xr2:uid="{EBD55B12-D42E-4CB6-A987-1B6E94433416}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EBD55B12-D42E-4CB6-A987-1B6E94433416}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -160,38 +160,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>Activity 1</t>
-  </si>
-  <si>
-    <t>Activity 2</t>
-  </si>
-  <si>
-    <t>Activity 3</t>
-  </si>
-  <si>
-    <t>Activity 4</t>
-  </si>
-  <si>
-    <t>Activity 5</t>
-  </si>
-  <si>
-    <t>Activity 6</t>
-  </si>
-  <si>
-    <t>Activity 7</t>
-  </si>
-  <si>
-    <t>Activity 8</t>
-  </si>
-  <si>
-    <t>Activity 9</t>
-  </si>
-  <si>
     <t>Holidays</t>
   </si>
   <si>
@@ -219,21 +192,6 @@
     <t>Completed days</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Start actual date</t>
-  </si>
-  <si>
-    <t>#days</t>
-  </si>
-  <si>
-    <t>#days completed</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -343,19 +301,66 @@
   </si>
   <si>
     <t>Team 6 Robot</t>
+  </si>
+  <si>
+    <t>Understand product design requirements</t>
+  </si>
+  <si>
+    <t>Develop QFD, Need Statement, Gantt Chart, Critical Path</t>
+  </si>
+  <si>
+    <t>Generate ideas</t>
+  </si>
+  <si>
+    <t>Further develop selected concept</t>
+  </si>
+  <si>
+    <t>Create CAD model (MS2)</t>
+  </si>
+  <si>
+    <t>Select a concept (MS1)</t>
+  </si>
+  <si>
+    <t>Create BOM (MS2)</t>
+  </si>
+  <si>
+    <t>Build a physical prototype</t>
+  </si>
+  <si>
+    <t>Install drive system (MS3)</t>
+  </si>
+  <si>
+    <t>Install collection and sorting systems (MS4)</t>
+  </si>
+  <si>
+    <t>Combine all systems</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Finish reports</t>
+  </si>
+  <si>
+    <t>Finalize prototype</t>
+  </si>
+  <si>
+    <t>Easter Weekend: March 29-April 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="General\ &quot;days&quot;"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -394,8 +399,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -436,7 +460,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -456,7 +480,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -470,6 +493,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -478,6 +511,15 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -531,15 +573,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF8FCFAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -703,33 +736,6 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.4000000000000004</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5.2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
@@ -757,38 +763,50 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$B$8:$B$17</c:f>
+              <c:f>'Gantt Chart'!$B$8:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Activity 1</c:v>
+                  <c:v>Understand product design requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Activity 2</c:v>
+                  <c:v>Generate ideas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Activity 3</c:v>
+                  <c:v>Develop QFD, Need Statement, Gantt Chart, Critical Path</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Activity 4</c:v>
+                  <c:v>Select a concept (MS1)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Activity 5</c:v>
+                  <c:v>Further develop selected concept</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Activity 6</c:v>
+                  <c:v>Create CAD model (MS2)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Activity 7</c:v>
+                  <c:v>Create BOM (MS2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Activity 8</c:v>
+                  <c:v>Build a physical prototype</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Activity 9</c:v>
+                  <c:v>Install drive system (MS3)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Activity 10</c:v>
+                  <c:v>Install collection and sorting systems (MS4)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Combine all systems</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Finalize prototype</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Finish reports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -800,34 +818,28 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45344</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45376</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>45380</c:v>
+                  <c:v>45349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45401</c:v>
+                  <c:v>45350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45417</c:v>
+                  <c:v>45356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45441</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44098</c:v>
+                  <c:v>45358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,76 +876,79 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$B$8:$B$17</c:f>
+              <c:f>'Gantt Chart'!$B$8:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Activity 1</c:v>
+                  <c:v>Understand product design requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Activity 2</c:v>
+                  <c:v>Generate ideas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Activity 3</c:v>
+                  <c:v>Develop QFD, Need Statement, Gantt Chart, Critical Path</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Activity 4</c:v>
+                  <c:v>Select a concept (MS1)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Activity 5</c:v>
+                  <c:v>Further develop selected concept</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Activity 6</c:v>
+                  <c:v>Create CAD model (MS2)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Activity 7</c:v>
+                  <c:v>Create BOM (MS2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Activity 8</c:v>
+                  <c:v>Build a physical prototype</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Activity 9</c:v>
+                  <c:v>Install drive system (MS3)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Activity 10</c:v>
+                  <c:v>Install collection and sorting systems (MS4)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Combine all systems</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Finalize prototype</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Finish reports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart'!$G$8:$G$17</c:f>
+              <c:f>'Gantt Chart'!$G$8:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General\ "days"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1013,7 +1028,8 @@
         <c:axId val="701749631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43970"/>
+          <c:max val="45392"/>
+          <c:min val="45338"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1774,15 +1790,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>298272</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339683</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>360708</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>197689</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>35964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1812,25 +1828,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{974918B6-22BD-40D6-B3AC-BCA21B69D329}" name="Table1" displayName="Table1" ref="B7:K17" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B7:K17" xr:uid="{30D7022C-4A05-479D-8EF4-E3D51B9C07E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{974918B6-22BD-40D6-B3AC-BCA21B69D329}" name="Table1" displayName="Table1" ref="B7:K21" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="B7:K21" xr:uid="{30D7022C-4A05-479D-8EF4-E3D51B9C07E9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{221D18FB-6CD8-4725-99EB-ECA975A5E0B6}" name="Activity" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{9ACD8F4A-3C52-458B-96BC-0A17FDFEF7B7}" name="Planned Starting Date" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{F9116EEC-6BEC-4514-88CC-E1C0CD686D66}" name="Planned Duration (working days)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{91393760-3D7B-4B80-AA23-A507297F90C5}" name="Planned End Date" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{91393760-3D7B-4B80-AA23-A507297F90C5}" name="Planned End Date" dataDxfId="0">
       <calculatedColumnFormula>WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10C04521-270B-4CE1-86ED-85ADEA10B745}" name="Actual Starting Date" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B657B832-3A5C-47FF-9AD8-5A1B0BC507A6}" name="Actual Duration" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{22358B39-3659-4026-9239-CB464AC3EA1A}" name="Actual End Date" dataDxfId="3">
-      <calculatedColumnFormula>WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{FE1FB940-D964-4F4E-AC97-25D02F2C2A3F}" name="Completion" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9A4C5818-C7EE-4027-A773-3053BE2FF09A}" name="Completed days" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{10C04521-270B-4CE1-86ED-85ADEA10B745}" name="Actual Starting Date" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B657B832-3A5C-47FF-9AD8-5A1B0BC507A6}" name="Actual Duration" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{22358B39-3659-4026-9239-CB464AC3EA1A}" name="Actual End Date" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{FE1FB940-D964-4F4E-AC97-25D02F2C2A3F}" name="Completion" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9A4C5818-C7EE-4027-A773-3053BE2FF09A}" name="Completed days" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7436E3CD-9C67-400E-A54C-9A39F1654A66}" name="Delta" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{7436E3CD-9C67-400E-A54C-9A39F1654A66}" name="Delta" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2140,200 +2154,200 @@
   </sheetPr>
   <dimension ref="B5:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C29" zoomScale="97" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.53125" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="str">
+        <f>"This step is crucial to making sure that your X-Axis in the chart is displayed properly: Select the X-Axis in the chart, press Ctrl+1, and change the Minimum Bounds to the number "&amp;'Gantt Chart'!$C$8-10&amp;", which is the planned date of the first activity minus 10 days."</f>
+        <v>This step is crucial to making sure that your X-Axis in the chart is displayed properly: Select the X-Axis in the chart, press Ctrl+1, and change the Minimum Bounds to the number 45328, which is the planned date of the first activity minus 10 days.</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="19"/>
+      <c r="D33" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="str">
-        <f ca="1">"This step is crucial to making sure that your X-Axis in the chart is displayed properly: Select the X-Axis in the chart, press Ctrl+1, and change the Minimum Bounds to the number "&amp;'Gantt Chart'!$C$8-10&amp;", which is the planned date of the first activity minus 10 days."</f>
-        <v>This step is crucial to making sure that your X-Axis in the chart is displayed properly: Select the X-Axis in the chart, press Ctrl+1, and change the Minimum Bounds to the number 45334, which is the planned date of the first activity minus 10 days.</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="20"/>
-      <c r="D33" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2360,138 +2374,123 @@
   <sheetPr>
     <tabColor rgb="FF8FCFAD"/>
   </sheetPr>
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA10" sqref="W7:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="10" width="16.1328125" customWidth="1"/>
-    <col min="11" max="11" width="15.46484375" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1328125" customWidth="1"/>
-    <col min="20" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="13.15" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="7" spans="1:26" ht="41.65" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45338</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45342</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45338</v>
+      </c>
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
-        <f ca="1">TODAY()-12</f>
-        <v>45344</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45351</v>
-      </c>
-      <c r="F8" s="13">
-        <f ca="1">TODAY()-12</f>
-        <v>45344</v>
-      </c>
-      <c r="G8" s="15">
-        <v>5</v>
-      </c>
       <c r="H8" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45351</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
+        <v>45338</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="31">
         <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>5</v>
-      </c>
-      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="1"/>
@@ -2501,42 +2500,33 @@
       <c r="T8" s="1"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
-        <f ca="1">TODAY()-10</f>
-        <v>45346</v>
-      </c>
-      <c r="D9" s="15">
-        <v>7</v>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45338</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
       </c>
       <c r="E9" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45356</v>
-      </c>
-      <c r="F9" s="13">
-        <f ca="1">TODAY()-5</f>
-        <v>45351</v>
-      </c>
-      <c r="G9" s="15">
-        <v>3</v>
+        <v>45342</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45338</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5</v>
       </c>
       <c r="H9" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45356</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="J9" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K9" s="21">
+        <v>45342</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4"/>
       <c r="O9" s="1"/>
@@ -2546,42 +2536,33 @@
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45342</v>
+      </c>
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
-        <f ca="1">TODAY()</f>
-        <v>45356</v>
-      </c>
-      <c r="D10" s="15">
-        <v>13</v>
-      </c>
       <c r="E10" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45373</v>
-      </c>
-      <c r="F10" s="13">
-        <f ca="1">TODAY()+3</f>
-        <v>45359</v>
-      </c>
-      <c r="G10" s="15">
-        <v>10</v>
+        <v>45344</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45342</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
       </c>
       <c r="H10" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45373</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>5</v>
-      </c>
-      <c r="K10" s="21">
+        <v>45344</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="O10" s="1"/>
@@ -2591,42 +2572,33 @@
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
-        <f ca="1">TODAY()+25</f>
-        <v>45381</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4</v>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45344</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5</v>
       </c>
       <c r="E11" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45386</v>
-      </c>
-      <c r="F11" s="13">
-        <f ca="1">TODAY()+20</f>
-        <v>45376</v>
-      </c>
-      <c r="G11" s="15">
-        <v>13</v>
+        <v>45348</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45344</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5</v>
       </c>
       <c r="H11" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45393</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>5.2</v>
-      </c>
-      <c r="K11" s="21">
+        <v>45348</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4"/>
       <c r="O11" s="1"/>
@@ -2636,42 +2608,33 @@
       <c r="T11" s="1"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45348</v>
+      </c>
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="13">
-        <f ca="1">TODAY()+28</f>
-        <v>45384</v>
-      </c>
-      <c r="D12" s="15">
-        <v>15</v>
-      </c>
       <c r="E12" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45405</v>
-      </c>
-      <c r="F12" s="13">
-        <f ca="1">TODAY()+24</f>
-        <v>45380</v>
-      </c>
-      <c r="G12" s="15">
-        <v>10</v>
+        <v>45352</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45349</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
       </c>
       <c r="H12" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45394</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>3</v>
-      </c>
-      <c r="K12" s="21">
+        <v>45349</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M12" s="4"/>
       <c r="O12" s="1"/>
@@ -2681,42 +2644,33 @@
       <c r="T12" s="1"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13">
-        <f ca="1">TODAY()+50</f>
-        <v>45406</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45352</v>
+      </c>
+      <c r="D13" s="14">
+        <v>11</v>
       </c>
       <c r="E13" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45420</v>
-      </c>
-      <c r="F13" s="13">
-        <f ca="1">TODAY()+45</f>
-        <v>45401</v>
-      </c>
-      <c r="G13" s="15">
-        <v>14</v>
+        <v>45362</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45350</v>
+      </c>
+      <c r="G13" s="14">
+        <v>9</v>
       </c>
       <c r="H13" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45421</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
+        <v>45358</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="1"/>
@@ -2726,42 +2680,33 @@
       <c r="T13" s="1"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45352</v>
+      </c>
+      <c r="D14" s="14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10">
+        <v>45362</v>
+      </c>
+      <c r="F14" s="12">
+        <v>45356</v>
+      </c>
+      <c r="G14" s="14">
         <v>7</v>
       </c>
-      <c r="C14" s="13">
-        <f ca="1">TODAY()+65</f>
-        <v>45421</v>
-      </c>
-      <c r="D14" s="15">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45434</v>
-      </c>
-      <c r="F14" s="13">
-        <f ca="1">TODAY()+61</f>
-        <v>45417</v>
-      </c>
-      <c r="G14" s="15">
-        <v>20</v>
-      </c>
       <c r="H14" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45443</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
+        <v>45362</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="M14" s="4"/>
       <c r="O14" s="1"/>
@@ -2771,42 +2716,29 @@
       <c r="T14" s="1"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13">
-        <f ca="1">TODAY()+80</f>
-        <v>45436</v>
-      </c>
-      <c r="D15" s="15">
-        <v>7</v>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45358</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6</v>
       </c>
       <c r="E15" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45447</v>
-      </c>
-      <c r="F15" s="13">
-        <f ca="1">TODAY()+85</f>
-        <v>45441</v>
-      </c>
-      <c r="G15" s="15">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45462</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
+        <v>45363</v>
+      </c>
+      <c r="F15" s="12">
+        <v>45358</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="M15" s="4"/>
       <c r="O15" s="1"/>
@@ -2816,42 +2748,27 @@
       <c r="T15" s="1"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13">
-        <f ca="1">TODAY()+90</f>
-        <v>45446</v>
-      </c>
-      <c r="D16" s="15">
-        <v>6</v>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45363</v>
+      </c>
+      <c r="D16" s="14">
+        <v>11</v>
       </c>
       <c r="E16" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45454</v>
-      </c>
-      <c r="F16" s="13">
-        <f ca="1">TODAY()+97</f>
-        <v>45453</v>
-      </c>
-      <c r="G16" s="15">
-        <v>4</v>
-      </c>
-      <c r="H16" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>45457</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="21">
+        <v>45373</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="M16" s="4"/>
       <c r="O16" s="1"/>
@@ -2861,577 +2778,622 @@
       <c r="T16" s="1"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="2:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="13">
-        <f ca="1">+C16+10</f>
-        <v>45456</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10</v>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45370</v>
+      </c>
+      <c r="D17" s="14">
+        <v>14</v>
       </c>
       <c r="E17" s="10">
-        <f ca="1">WORKDAY(Table1[[#This Row],[Planned Starting Date]],Table1[[#This Row],[Planned Duration (working days)]],$B$3:$F$5)</f>
-        <v>45470</v>
-      </c>
-      <c r="F17" s="13">
-        <v>44098</v>
-      </c>
-      <c r="G17" s="15">
-        <v>7</v>
-      </c>
-      <c r="H17" s="10">
-        <f>WORKDAY(Table1[[#This Row],[Actual Starting Date]],Table1[[#This Row],[Actual Duration]],$B$3:$F$5)</f>
-        <v>44109</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <f>Table1[[#This Row],[Actual Duration]]*Table1[[#This Row],[Completion]]</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
+        <v>45383</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="20">
+        <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45377</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>45379</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="20">
         <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45379</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45384</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="20">
+        <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45384</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>45385</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="20">
+        <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45386</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>45390</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="20">
+        <f>Table1[[#This Row],[Actual Duration]]-Table1[[#This Row],[Planned Duration (working days)]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
-      <c r="D47" s="16"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
-      <c r="D49" s="16"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
-      <c r="D50" s="16"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
-      <c r="D51" s="16"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
-      <c r="D58" s="16"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
-      <c r="D59" s="16"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
-      <c r="D60" s="16"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
-      <c r="D61" s="16"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="12"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
-      <c r="D65" s="16"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="12"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
-      <c r="D66" s="16"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="12"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="15"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="12"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="12"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
-      <c r="D70" s="16"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
-      <c r="D71" s="16"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="12"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="12"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
-      <c r="D73" s="16"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="12"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
-      <c r="D74" s="16"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
-      <c r="D75" s="16"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
-      <c r="D76" s="16"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K8:K17">
+  <conditionalFormatting sqref="K8:K21">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3450,6 +3412,9 @@
   <customProperties>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
+  <ignoredErrors>
+    <ignoredError sqref="E18:E21 E8:E17" calculatedColumn="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
@@ -3468,44 +3433,12 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K8:K17</xm:sqref>
+          <xm:sqref>K8:K21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FC5DA4E3-11CA-42D2-82BA-1B01DB9331AF}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Gantt Chart'!K8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{77D1DFAF-CB0B-4132-AA0C-3D13E0450AC7}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Gantt Chart'!K8</xm:f>
-              <xm:sqref>L8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FBA92ED8-93FD-418C-949E-55EBE56BA20E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -3522,6 +3455,38 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{77D1DFAF-CB0B-4132-AA0C-3D13E0450AC7}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Gantt Chart'!K8:K8</xm:f>
+              <xm:sqref>L8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FC5DA4E3-11CA-42D2-82BA-1B01DB9331AF}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Gantt Chart'!K8:K8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
